--- a/videos.xlsx
+++ b/videos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A2:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,28 +421,28 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Created Date</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Download Date</t>
         </is>

--- a/videos.xlsx
+++ b/videos.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,13 +25,53 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="00d90429"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="00012a4a"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="009b2226"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="00343a40"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="00642957"/>
+      <sz val="14"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00dae2e4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00eaeef0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +86,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,40 +468,236 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E2"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="4.8" customWidth="1" min="1" max="1"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7.199999999999999" customWidth="1" min="3" max="3"/>
+    <col width="16.8" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Created Date</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>Download Date</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>https://www.youtube.com/watch\?v\=6c2hT_f5Q2g</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>video+desc</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Created Date</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Download Date</t>
-        </is>
-      </c>
+          <t>2021-05-08 14:11:12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=WLTymkEVn5s</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>audio</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2021-05-09 14:13:14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=sWBxZjnrrbc</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>audio+desc</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2021-05-10 15:15:16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=1_mJI426TCo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>video</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2021-05-11 16:17:18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=NBRGZnoOblE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>audio</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2021-05-11 18:21:22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=NFYw7jVkMxI</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>audio+desc</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2021-05-12 21:13:11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=hWZuTWAvWrA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>video</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2021-05-12 09:10:23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=KO0OYCbDPRM</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>audio</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2021-05-13 09:20:00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=6c2hT_f5Q2g</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>video+desc</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2021-05-13 09:20:00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/videos.xlsx
+++ b/videos.xlsx
@@ -179,6 +179,41 @@
 </styleSheet>
 </file>
 
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>System</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>This is a heading</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>This is a heading</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>This is a heading</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>This is a heading</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>This is a heading</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -463,7 +498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -701,5 +736,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
--- a/videos.xlsx
+++ b/videos.xlsx
@@ -187,27 +187,27 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
       <text>
-        <t>This is a heading</t>
+        <t>This is the unique identifier for each row</t>
       </text>
     </comment>
     <comment ref="B1" authorId="0" shapeId="0">
       <text>
-        <t>This is a heading</t>
+        <t>This is the URL for the video</t>
       </text>
     </comment>
     <comment ref="C1" authorId="0" shapeId="0">
       <text>
-        <t>This is a heading</t>
+        <t>This is the download type for the video</t>
       </text>
     </comment>
     <comment ref="D1" authorId="0" shapeId="0">
       <text>
-        <t>This is a heading</t>
+        <t>This is the date that the entry was created</t>
       </text>
     </comment>
     <comment ref="E1" authorId="0" shapeId="0">
       <text>
-        <t>This is a heading</t>
+        <t>This is the date that the video was downloaded (if applicable)</t>
       </text>
     </comment>
   </commentList>

--- a/videos.xlsx
+++ b/videos.xlsx
@@ -512,9 +512,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4.8" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="7.199999999999999" customWidth="1" min="3" max="3"/>
-    <col width="16.8" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
